--- a/Code/Results/Cases/Case_8_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.31698471940136</v>
+        <v>21.39146798230464</v>
       </c>
       <c r="C2">
-        <v>14.94355978971892</v>
+        <v>15.33301667228672</v>
       </c>
       <c r="D2">
-        <v>4.933374256407966</v>
+        <v>4.915861111978001</v>
       </c>
       <c r="E2">
-        <v>8.472346937967094</v>
+        <v>8.588337253445504</v>
       </c>
       <c r="F2">
-        <v>18.78038366466277</v>
+        <v>18.00319618744092</v>
       </c>
       <c r="G2">
-        <v>2.089781013856813</v>
+        <v>2.323339919677591</v>
       </c>
       <c r="H2">
-        <v>2.221323799169011</v>
+        <v>2.063771488355169</v>
       </c>
       <c r="I2">
-        <v>2.820123580621085</v>
+        <v>2.638096280111579</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.38712852098817</v>
+        <v>13.68547971985456</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.6524895402357</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.573148682520488</v>
       </c>
       <c r="N2">
-        <v>6.682208062129508</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.69354838338984</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.809688243873957</v>
       </c>
       <c r="Q2">
-        <v>15.18338577309274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.70035325903807</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.47615576068308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.92124682711199</v>
+        <v>20.01051681991039</v>
       </c>
       <c r="C3">
-        <v>14.24113250539727</v>
+        <v>14.56721286818674</v>
       </c>
       <c r="D3">
-        <v>4.774684324143678</v>
+        <v>4.721664620049746</v>
       </c>
       <c r="E3">
-        <v>8.393913563562677</v>
+        <v>8.546386114922463</v>
       </c>
       <c r="F3">
-        <v>18.38947762800498</v>
+        <v>17.62400221448294</v>
       </c>
       <c r="G3">
-        <v>2.0939829253527</v>
+        <v>2.86758653459647</v>
       </c>
       <c r="H3">
-        <v>2.421687827127991</v>
+        <v>2.238163282129056</v>
       </c>
       <c r="I3">
-        <v>2.989501515761177</v>
+        <v>2.776914794472348</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.56440287062818</v>
+        <v>13.86086498337905</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.83612128953029</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.682408666714222</v>
       </c>
       <c r="N3">
-        <v>6.514672500654246</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.03660619790387</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.653036990057822</v>
       </c>
       <c r="Q3">
-        <v>15.09177208745696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.03280930940228</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.38142486645862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.01179969191021</v>
+        <v>19.11087941679436</v>
       </c>
       <c r="C4">
-        <v>13.79399394107556</v>
+        <v>14.08029175771854</v>
       </c>
       <c r="D4">
-        <v>4.674416440879199</v>
+        <v>4.598430494265537</v>
       </c>
       <c r="E4">
-        <v>8.344057031154041</v>
+        <v>8.51985507206982</v>
       </c>
       <c r="F4">
-        <v>18.15616912107298</v>
+        <v>17.39328035059483</v>
       </c>
       <c r="G4">
-        <v>2.096651033726195</v>
+        <v>3.213411539127569</v>
       </c>
       <c r="H4">
-        <v>2.548946256328157</v>
+        <v>2.348994749897829</v>
       </c>
       <c r="I4">
-        <v>3.097890226345568</v>
+        <v>2.866192887553208</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.67843761938018</v>
+        <v>13.97158608282983</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.95184935133139</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.767914476090057</v>
       </c>
       <c r="N4">
-        <v>6.409712379979247</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.61490711894522</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.555356262155053</v>
       </c>
       <c r="Q4">
-        <v>15.04331577364679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.60357782090101</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.32736934782987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.6276782799235</v>
+        <v>18.73096945088444</v>
       </c>
       <c r="C5">
-        <v>13.61716180321404</v>
+        <v>13.88697487606778</v>
       </c>
       <c r="D5">
-        <v>4.634531464398911</v>
+        <v>4.548935624397711</v>
       </c>
       <c r="E5">
-        <v>8.322639658836788</v>
+        <v>8.50831768307645</v>
       </c>
       <c r="F5">
-        <v>18.05285185912439</v>
+        <v>17.29007483999974</v>
       </c>
       <c r="G5">
-        <v>2.097766758921202</v>
+        <v>3.358104915807048</v>
       </c>
       <c r="H5">
-        <v>2.602168441261407</v>
+        <v>2.395374921054506</v>
       </c>
       <c r="I5">
-        <v>3.145952255397577</v>
+        <v>2.906926234628093</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.72014283690203</v>
+        <v>14.01179491824121</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.99431210764487</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.804300794036948</v>
       </c>
       <c r="N5">
-        <v>6.366891669825901</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.4391338280857</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.51562691670349</v>
       </c>
       <c r="Q5">
-        <v>15.01801664972542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.42444935591516</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.29905184142597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.56274910474951</v>
+        <v>18.6667578625777</v>
       </c>
       <c r="C6">
-        <v>13.59889851631061</v>
+        <v>13.86582170698191</v>
       </c>
       <c r="D6">
-        <v>4.629899916769006</v>
+        <v>4.542727691689071</v>
       </c>
       <c r="E6">
-        <v>8.318253470910626</v>
+        <v>8.50575509624856</v>
       </c>
       <c r="F6">
-        <v>18.02355934159852</v>
+        <v>17.26100261347717</v>
       </c>
       <c r="G6">
-        <v>2.097960607350929</v>
+        <v>3.383278357856118</v>
       </c>
       <c r="H6">
-        <v>2.61141571664799</v>
+        <v>2.403450010111021</v>
       </c>
       <c r="I6">
-        <v>3.157577889994694</v>
+        <v>2.918057649875123</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.71978393877951</v>
+        <v>14.01161674180404</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.99476625558263</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.806991007414055</v>
       </c>
       <c r="N6">
-        <v>6.360296755836297</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.41034887336565</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.509522084427235</v>
       </c>
       <c r="Q6">
-        <v>15.00480497331397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.39506149826556</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.28549502388655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.00575154711231</v>
+        <v>19.10451253228289</v>
       </c>
       <c r="C7">
-        <v>13.82212336018267</v>
+        <v>14.08967270015767</v>
       </c>
       <c r="D7">
-        <v>4.679397244991845</v>
+        <v>4.613965668519144</v>
       </c>
       <c r="E7">
-        <v>8.341628786594619</v>
+        <v>8.516028966112058</v>
       </c>
       <c r="F7">
-        <v>18.1215671043288</v>
+        <v>17.30105764759445</v>
       </c>
       <c r="G7">
-        <v>2.096685296786276</v>
+        <v>3.282680807304439</v>
       </c>
       <c r="H7">
-        <v>2.550578531730701</v>
+        <v>2.351723139182039</v>
       </c>
       <c r="I7">
-        <v>3.108013237125415</v>
+        <v>2.879456075727169</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.65888227813889</v>
+        <v>13.93123156464194</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.91396420368859</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.745704568478914</v>
       </c>
       <c r="N7">
-        <v>6.410619641885372</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.61433436989275</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.554653076691232</v>
       </c>
       <c r="Q7">
-        <v>15.01812066349474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.60226697724934</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.25947741966726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.84547341566514</v>
+        <v>20.92377015467276</v>
       </c>
       <c r="C8">
-        <v>14.74312925623228</v>
+        <v>15.05341676933378</v>
       </c>
       <c r="D8">
-        <v>4.886405380216611</v>
+        <v>4.891391277662258</v>
       </c>
       <c r="E8">
-        <v>8.443047068483631</v>
+        <v>8.565758189729868</v>
       </c>
       <c r="F8">
-        <v>18.60154541579873</v>
+        <v>17.64277162691835</v>
       </c>
       <c r="G8">
-        <v>2.091235635802713</v>
+        <v>2.938363790523281</v>
       </c>
       <c r="H8">
-        <v>2.290667068813046</v>
+        <v>2.12809868184039</v>
       </c>
       <c r="I8">
-        <v>2.889844145343449</v>
+        <v>2.703928838384089</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.42051319481971</v>
+        <v>13.64903967639829</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.63234724938666</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.543506693738474</v>
       </c>
       <c r="N8">
-        <v>6.626840267628397</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.47308279040523</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.752897007020729</v>
       </c>
       <c r="Q8">
-        <v>15.11768103287669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.47432132792673</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.27030771914652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.04043352793549</v>
+        <v>24.08472743807972</v>
       </c>
       <c r="C9">
-        <v>16.36860968388277</v>
+        <v>16.82065768184869</v>
       </c>
       <c r="D9">
-        <v>5.259165764962436</v>
+        <v>5.352995315478902</v>
       </c>
       <c r="E9">
-        <v>8.632435195576603</v>
+        <v>8.667096523918252</v>
       </c>
       <c r="F9">
-        <v>19.64946437568747</v>
+        <v>18.59700851868844</v>
       </c>
       <c r="G9">
-        <v>2.081198954715764</v>
+        <v>2.000295691353142</v>
       </c>
       <c r="H9">
-        <v>1.812329491768079</v>
+        <v>1.712906839559446</v>
       </c>
       <c r="I9">
-        <v>2.480787910306677</v>
+        <v>2.59416133146415</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.03229571250738</v>
+        <v>13.23257002711523</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.20668508553171</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.364216894370866</v>
       </c>
       <c r="N9">
-        <v>7.030255949567951</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.00406099180305</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.131554750150741</v>
       </c>
       <c r="Q9">
-        <v>15.42065868858496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.02583851082448</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.52565914430329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.15478691927723</v>
+        <v>26.17473993253341</v>
       </c>
       <c r="C10">
-        <v>17.58388715345842</v>
+        <v>18.03329211189408</v>
       </c>
       <c r="D10">
-        <v>5.544987261152374</v>
+        <v>5.751848816860991</v>
       </c>
       <c r="E10">
-        <v>8.760117682966243</v>
+        <v>8.73227958121719</v>
       </c>
       <c r="F10">
-        <v>20.28610410761303</v>
+        <v>18.86400970331563</v>
       </c>
       <c r="G10">
-        <v>2.0743117619295</v>
+        <v>3.792972131448917</v>
       </c>
       <c r="H10">
-        <v>1.634819047844148</v>
+        <v>1.683025952273923</v>
       </c>
       <c r="I10">
-        <v>2.749789596584468</v>
+        <v>2.81307188660461</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.67506602287577</v>
+        <v>12.74315171865707</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.77651549837957</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.152777556467285</v>
       </c>
       <c r="N10">
-        <v>7.21630570306697</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.96178007086376</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.2935707271656</v>
       </c>
       <c r="Q10">
-        <v>15.55926054623638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.98961110863785</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.3930434055054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.20736584363523</v>
+        <v>27.21848157670761</v>
       </c>
       <c r="C11">
-        <v>18.9592897011974</v>
+        <v>19.14792323645723</v>
       </c>
       <c r="D11">
-        <v>5.903793428167354</v>
+        <v>6.246505101277614</v>
       </c>
       <c r="E11">
-        <v>9.024996193230713</v>
+        <v>8.995027171731667</v>
       </c>
       <c r="F11">
-        <v>19.29553751974366</v>
+        <v>17.3538186661926</v>
       </c>
       <c r="G11">
-        <v>2.071968177822574</v>
+        <v>7.757393055692477</v>
       </c>
       <c r="H11">
-        <v>2.654449056649722</v>
+        <v>2.669213738731574</v>
       </c>
       <c r="I11">
-        <v>2.844029644634089</v>
+        <v>2.882820478480705</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.73455047422564</v>
+        <v>11.77781698453406</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.13917304677051</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.357074483071552</v>
       </c>
       <c r="N11">
-        <v>6.500622158886073</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.76356413762651</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.547942439675206</v>
       </c>
       <c r="Q11">
-        <v>14.61079422938545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.77982722674812</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.07683181523939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.67090149506157</v>
+        <v>27.68045925975032</v>
       </c>
       <c r="C12">
-        <v>19.85774176758419</v>
+        <v>19.86979866304894</v>
       </c>
       <c r="D12">
-        <v>6.150226689691108</v>
+        <v>6.550485711563899</v>
       </c>
       <c r="E12">
-        <v>9.521895948458493</v>
+        <v>9.480956823196527</v>
       </c>
       <c r="F12">
-        <v>18.35092303769812</v>
+        <v>16.2367610468131</v>
       </c>
       <c r="G12">
-        <v>2.071295912740471</v>
+        <v>9.645864193052793</v>
       </c>
       <c r="H12">
-        <v>4.048205939055594</v>
+        <v>4.042071492614974</v>
       </c>
       <c r="I12">
-        <v>2.866056689573549</v>
+        <v>2.896537425642586</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.10245819085638</v>
+        <v>11.26192507846042</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.843288101517867</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.867828375051318</v>
       </c>
       <c r="N12">
-        <v>5.933793783055051</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.38794197166574</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.966982395465871</v>
       </c>
       <c r="Q12">
-        <v>13.80840264896998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.39583475246545</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.18178671581157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.72388883243682</v>
+        <v>27.73734608736796</v>
       </c>
       <c r="C13">
-        <v>20.50176543309766</v>
+        <v>20.42720836448179</v>
       </c>
       <c r="D13">
-        <v>6.335481931121803</v>
+        <v>6.705568753843921</v>
       </c>
       <c r="E13">
-        <v>10.17725152330684</v>
+        <v>10.13758007020362</v>
       </c>
       <c r="F13">
-        <v>17.31839743723969</v>
+        <v>15.41503055232992</v>
       </c>
       <c r="G13">
-        <v>2.071901204119259</v>
+        <v>9.213749500505557</v>
       </c>
       <c r="H13">
-        <v>5.499349298194876</v>
+        <v>5.493047434059645</v>
       </c>
       <c r="I13">
-        <v>2.838647443962417</v>
+        <v>2.875244527203678</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.65392315504701</v>
+        <v>11.02278695229521</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.722764526704474</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.596821625001527</v>
       </c>
       <c r="N13">
-        <v>5.469019718709916</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.84472012208145</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.501744461925998</v>
       </c>
       <c r="Q13">
-        <v>13.028992902057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.84719394527577</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.59665338543146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.57616038271185</v>
+        <v>27.59467482624778</v>
       </c>
       <c r="C14">
-        <v>20.85457775084548</v>
+        <v>20.75787038003686</v>
       </c>
       <c r="D14">
-        <v>6.44115691935135</v>
+        <v>6.749410070801057</v>
       </c>
       <c r="E14">
-        <v>10.7190442287279</v>
+        <v>10.68848799688701</v>
       </c>
       <c r="F14">
-        <v>16.54159453373236</v>
+        <v>14.95101734721291</v>
       </c>
       <c r="G14">
-        <v>2.072902230982402</v>
+        <v>7.884054565927864</v>
       </c>
       <c r="H14">
-        <v>6.520467587920978</v>
+        <v>6.512552285849734</v>
       </c>
       <c r="I14">
-        <v>2.798541707641617</v>
+        <v>2.84598933703081</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.43902694765402</v>
+        <v>10.96111414312162</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.694435395215415</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.50303607922718</v>
       </c>
       <c r="N14">
-        <v>5.220420965030551</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.38164655399674</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.258532766882699</v>
       </c>
       <c r="Q14">
-        <v>12.49177257487628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.38125785580541</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.30894322253749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.45118468452492</v>
+        <v>27.4720968932503</v>
       </c>
       <c r="C15">
-        <v>20.89555520881628</v>
+        <v>20.81094170031733</v>
       </c>
       <c r="D15">
-        <v>6.455107630949588</v>
+        <v>6.731010003365928</v>
       </c>
       <c r="E15">
-        <v>10.8491730569233</v>
+        <v>10.82713500554127</v>
       </c>
       <c r="F15">
-        <v>16.32420962068759</v>
+        <v>14.87955809277516</v>
       </c>
       <c r="G15">
-        <v>2.073440161266996</v>
+        <v>7.119470159684278</v>
       </c>
       <c r="H15">
-        <v>6.757532802625275</v>
+        <v>6.748511227260956</v>
       </c>
       <c r="I15">
-        <v>2.77928165348566</v>
+        <v>2.832916960572144</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.41572618761324</v>
+        <v>10.97830790354668</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.702176584068992</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.510409247357586</v>
       </c>
       <c r="N15">
-        <v>5.171388390882965</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.233021483057</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.212932356143162</v>
       </c>
       <c r="Q15">
-        <v>12.36005879545822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.23227103979073</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.28474745048014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.58623408858677</v>
+        <v>26.61829285509051</v>
       </c>
       <c r="C16">
-        <v>20.32295245085714</v>
+        <v>20.39028451503216</v>
       </c>
       <c r="D16">
-        <v>6.308724452728141</v>
+        <v>6.44313340229988</v>
       </c>
       <c r="E16">
-        <v>10.65628909983052</v>
+        <v>10.6949470170607</v>
       </c>
       <c r="F16">
-        <v>16.19633279925924</v>
+        <v>15.31838336056215</v>
       </c>
       <c r="G16">
-        <v>2.076272905068632</v>
+        <v>3.508251451413352</v>
       </c>
       <c r="H16">
-        <v>6.554350023163826</v>
+        <v>6.537080380849872</v>
       </c>
       <c r="I16">
-        <v>2.670494229230453</v>
+        <v>2.753568405545443</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.6644702621895</v>
+        <v>11.27649684540388</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.850753281784394</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.775905129789233</v>
       </c>
       <c r="N16">
-        <v>5.17495117909906</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.91197524536217</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.235477547898316</v>
       </c>
       <c r="Q16">
-        <v>12.43566356897474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.9138801561533</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.74413876660636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.98917360195426</v>
+        <v>26.02699057572554</v>
       </c>
       <c r="C17">
-        <v>19.67803299160552</v>
+        <v>19.85132865678469</v>
       </c>
       <c r="D17">
-        <v>6.136271045961882</v>
+        <v>6.214656139483601</v>
       </c>
       <c r="E17">
-        <v>10.1971281603001</v>
+        <v>10.27016339885972</v>
       </c>
       <c r="F17">
-        <v>16.52286093746651</v>
+        <v>15.83832425237172</v>
       </c>
       <c r="G17">
-        <v>2.077921743191745</v>
+        <v>2.018479628196042</v>
       </c>
       <c r="H17">
-        <v>5.82503649035331</v>
+        <v>5.800204388492923</v>
       </c>
       <c r="I17">
-        <v>2.608599456973008</v>
+        <v>2.707673878643071</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.95682339544745</v>
+        <v>11.55442187994506</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.01323226761446</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.019335118956982</v>
       </c>
       <c r="N17">
-        <v>5.295982874478067</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.91965611572954</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.368258282799196</v>
       </c>
       <c r="Q17">
-        <v>12.77819822282475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.92448411128642</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.20900760848798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.56894715199553</v>
+        <v>25.60862530691582</v>
       </c>
       <c r="C18">
-        <v>18.88710516014014</v>
+        <v>19.16855006836925</v>
       </c>
       <c r="D18">
-        <v>5.921615925114091</v>
+        <v>5.987026597003156</v>
       </c>
       <c r="E18">
-        <v>9.5512716889549</v>
+        <v>9.640590448005264</v>
       </c>
       <c r="F18">
-        <v>17.29479063394038</v>
+        <v>16.61737346192147</v>
       </c>
       <c r="G18">
-        <v>2.078663192582324</v>
+        <v>1.471553085699355</v>
       </c>
       <c r="H18">
-        <v>4.584446167684487</v>
+        <v>4.549958674804531</v>
       </c>
       <c r="I18">
-        <v>2.577778963792241</v>
+        <v>2.682885510001629</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.37167741603565</v>
+        <v>11.90734590997943</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.2435419735824</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.324274767200942</v>
       </c>
       <c r="N18">
-        <v>5.605912567794817</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.21149699505134</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.686875345133513</v>
       </c>
       <c r="Q18">
-        <v>13.40896059686773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.22157406798864</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.83203674993281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.32882755553686</v>
+        <v>25.36708160454409</v>
       </c>
       <c r="C19">
-        <v>18.11391006882344</v>
+        <v>18.50404837361611</v>
       </c>
       <c r="D19">
-        <v>5.707453812981117</v>
+        <v>5.783458172245142</v>
       </c>
       <c r="E19">
-        <v>8.991120218205923</v>
+        <v>9.069905371478733</v>
       </c>
       <c r="F19">
-        <v>18.30484359069681</v>
+        <v>17.53298632639923</v>
       </c>
       <c r="G19">
-        <v>2.078572022104308</v>
+        <v>1.373961022146118</v>
       </c>
       <c r="H19">
-        <v>3.119147963811102</v>
+        <v>3.069860073663035</v>
       </c>
       <c r="I19">
-        <v>2.587814777745657</v>
+        <v>2.692862810381079</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.89000126739232</v>
+        <v>12.32557878148985</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.52901111207387</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.685121659627551</v>
       </c>
       <c r="N19">
-        <v>6.135800515649622</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.70510787322225</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.223220409119743</v>
       </c>
       <c r="Q19">
-        <v>14.19292615843582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.72229170144608</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.53581113196647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.61498918165482</v>
+        <v>25.64243956801459</v>
       </c>
       <c r="C20">
-        <v>17.35568042748697</v>
+        <v>17.8587582443092</v>
       </c>
       <c r="D20">
-        <v>5.48811833333471</v>
+        <v>5.631101398086421</v>
       </c>
       <c r="E20">
-        <v>8.721980853306501</v>
+        <v>8.718670522245867</v>
       </c>
       <c r="F20">
-        <v>20.01809003104405</v>
+        <v>18.88379440383693</v>
       </c>
       <c r="G20">
-        <v>2.076147467378588</v>
+        <v>2.259201631353977</v>
       </c>
       <c r="H20">
-        <v>1.591828121767794</v>
+        <v>1.612473367905317</v>
       </c>
       <c r="I20">
-        <v>2.6912671053893</v>
+        <v>2.775435973881796</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.70054252320154</v>
+        <v>12.88685792897178</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.89685837993277</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.218637176099568</v>
       </c>
       <c r="N20">
-        <v>7.167907940958232</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.71739904789423</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.255813470174488</v>
       </c>
       <c r="Q20">
-        <v>15.44158233832623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.74578538894441</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.49659769415102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.13384233150052</v>
+        <v>27.13752025383043</v>
       </c>
       <c r="C21">
-        <v>18.09834641807464</v>
+        <v>18.34347180875949</v>
       </c>
       <c r="D21">
-        <v>5.659334111003915</v>
+        <v>6.072178085823768</v>
       </c>
       <c r="E21">
-        <v>8.824958568843352</v>
+        <v>8.735548978923866</v>
       </c>
       <c r="F21">
-        <v>20.75853359833736</v>
+        <v>18.35047679503221</v>
       </c>
       <c r="G21">
-        <v>2.070826724873231</v>
+        <v>9.42943313390075</v>
       </c>
       <c r="H21">
-        <v>1.796777536923076</v>
+        <v>1.807519530789689</v>
       </c>
       <c r="I21">
-        <v>2.900150127840676</v>
+        <v>2.925561702081105</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.59101206821119</v>
+        <v>12.26380339547856</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.42873702031344</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.83827953071832</v>
       </c>
       <c r="N21">
-        <v>7.458256142818838</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.53084782754813</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.506162449537968</v>
       </c>
       <c r="Q21">
-        <v>15.7553499939703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.55274270445351</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.82326809294572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09166302836317</v>
+        <v>28.08090352952106</v>
       </c>
       <c r="C22">
-        <v>18.58427566182475</v>
+        <v>18.64653874503236</v>
       </c>
       <c r="D22">
-        <v>5.774771858068986</v>
+        <v>6.375465676829189</v>
       </c>
       <c r="E22">
-        <v>8.891312265224883</v>
+        <v>8.754686222563574</v>
       </c>
       <c r="F22">
-        <v>21.20801453447768</v>
+        <v>17.91653128877155</v>
       </c>
       <c r="G22">
-        <v>2.067439457977252</v>
+        <v>14.50665443609246</v>
       </c>
       <c r="H22">
-        <v>1.953947057763624</v>
+        <v>1.931292937624237</v>
       </c>
       <c r="I22">
-        <v>3.02818208807859</v>
+        <v>3.015960887783873</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.50609736184351</v>
+        <v>11.82982159579738</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.13540614367993</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.553228600250922</v>
       </c>
       <c r="N22">
-        <v>7.592922622428161</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.0056969187414</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.614308393764937</v>
       </c>
       <c r="Q22">
-        <v>15.93984417622696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.02114740106115</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.31594289297316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.58529397813574</v>
+        <v>27.58254083535131</v>
       </c>
       <c r="C23">
-        <v>18.29745470841296</v>
+        <v>18.49354652051064</v>
       </c>
       <c r="D23">
-        <v>5.707647579753116</v>
+        <v>6.182022502672833</v>
       </c>
       <c r="E23">
-        <v>8.857736225391157</v>
+        <v>8.747860135661915</v>
       </c>
       <c r="F23">
-        <v>21.00150585067723</v>
+        <v>18.31148964629128</v>
       </c>
       <c r="G23">
-        <v>2.069224525421204</v>
+        <v>10.99744464072374</v>
       </c>
       <c r="H23">
-        <v>1.87110163232326</v>
+        <v>1.867825138660835</v>
       </c>
       <c r="I23">
-        <v>2.955525762493606</v>
+        <v>2.963615402264265</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.57472853291951</v>
+        <v>12.1272216201831</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.32746218140656</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.770619336476697</v>
       </c>
       <c r="N23">
-        <v>7.51966115524198</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.75246178793856</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.558279896500427</v>
       </c>
       <c r="Q23">
-        <v>15.86775776063548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.77308992102111</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.71346147014253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.57715920915763</v>
+        <v>25.6045011986667</v>
       </c>
       <c r="C24">
-        <v>17.22333299550758</v>
+        <v>17.7379260215401</v>
       </c>
       <c r="D24">
-        <v>5.455988871244579</v>
+        <v>5.597753097264558</v>
       </c>
       <c r="E24">
-        <v>8.725954890694132</v>
+        <v>8.716439693261263</v>
       </c>
       <c r="F24">
-        <v>20.17432343890675</v>
+        <v>19.03528809093731</v>
       </c>
       <c r="G24">
-        <v>2.076136331625201</v>
+        <v>2.209458854697898</v>
       </c>
       <c r="H24">
-        <v>1.571217402253694</v>
+        <v>1.615225175472287</v>
       </c>
       <c r="I24">
-        <v>2.683134278697777</v>
+        <v>2.765397809451072</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.81076298772699</v>
+        <v>12.98145589230005</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.96226653490567</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.29834402691189</v>
       </c>
       <c r="N24">
-        <v>7.239308791776455</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.75871922299179</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.328430505926428</v>
       </c>
       <c r="Q24">
-        <v>15.56972329761482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.7879631239154</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.61912390005869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.21875970037253</v>
+        <v>23.27238532075788</v>
       </c>
       <c r="C25">
-        <v>15.99232197537104</v>
+        <v>16.4298206837763</v>
       </c>
       <c r="D25">
-        <v>5.17043652448284</v>
+        <v>5.227232771350545</v>
       </c>
       <c r="E25">
-        <v>8.579339763452086</v>
+        <v>8.640639197377773</v>
       </c>
       <c r="F25">
-        <v>19.30539335159526</v>
+        <v>18.36117889274094</v>
       </c>
       <c r="G25">
-        <v>2.083873572879733</v>
+        <v>1.881713309319456</v>
       </c>
       <c r="H25">
-        <v>1.939722167698692</v>
+        <v>1.821865504263908</v>
       </c>
       <c r="I25">
-        <v>2.606041421440639</v>
+        <v>2.519605477469828</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.09596800613611</v>
+        <v>13.34043593650688</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.31796786797555</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.394006583241005</v>
       </c>
       <c r="N25">
-        <v>6.925836693722966</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.60919916437841</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.035231239067734</v>
       </c>
       <c r="Q25">
-        <v>15.28813868565809</v>
+        <v>13.62697919061132</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.47032615447798</v>
       </c>
     </row>
   </sheetData>
